--- a/biology/Botanique/Pascal_Leonetti/Pascal_Leonetti.xlsx
+++ b/biology/Botanique/Pascal_Leonetti/Pascal_Leonetti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pascal Leonetti (né le 12 septembre 1977 à Bastia) est un sommelier français « Meilleur sommelier de France 2006 ».
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pascal Leonetti est diplômé du lycée de Balagne (L'Île-Rousse) et du lycée hôtelier de Illkirch (Alsace).
 Il travaille depuis 1998 à l'« Auberge de L'Ill » d'Illhaeusern en Alsace, restaurant 3 étoiles au guide Michelin de Marc et Paul Haeberlin avec le sommelier Serge Dubs « Meilleur sommelier du Monde 1989 ».
@@ -544,7 +558,9 @@
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1995  - Meilleur Jeune sommelier de Corse  Trophee Peraldi
 1997 - Meilleur sommelier de Corse Trophe  UVA Corsa
